--- a/Prosper Loan Data - Variable Definitions.xlsx
+++ b/Prosper Loan Data - Variable Definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a9459ed4229c8d0/2-Data Science/Udacity/Analyst/05_Data Visualization/Project_04 Communicate Data Findings/Prosper Loan Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a9459ed4229c8d0/Github/Visuals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_E3C4FA5182FD3034AAC1B14BF172D2E4497693E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FF752CB-78DC-423F-9292-4D929578C6BE}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_E3C4FA5182FD3034AAC1B14BF172D2E4497693E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BE89683-9654-4431-9C3E-034B1808ADDC}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="18850" yWindow="2090" windowWidth="19540" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -518,7 +518,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -539,13 +539,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -557,10 +575,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -588,8 +607,33 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -905,21 +949,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.08984375" customWidth="1"/>
-    <col min="2" max="2" width="130.26953125" style="6" customWidth="1"/>
-    <col min="3" max="20" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="36.06640625" customWidth="1"/>
+    <col min="2" max="2" width="130.265625" style="6" customWidth="1"/>
+    <col min="3" max="20" width="17.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -935,7 +979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -943,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,15 +995,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,15 +1011,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -983,23 +1027,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1007,7 +1051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1015,7 +1059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1023,7 +1067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1031,31 +1075,31 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1063,39 +1107,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1103,7 +1147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1111,7 +1155,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1119,7 +1163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1127,23 +1171,23 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1151,7 +1195,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1159,7 +1203,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -1167,7 +1211,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -1175,7 +1219,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1183,7 +1227,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -1191,7 +1235,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -1199,7 +1243,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -1207,63 +1251,63 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -1271,7 +1315,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -1279,7 +1323,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -1287,7 +1331,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -1295,23 +1339,26 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -1319,15 +1366,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -1335,7 +1382,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -1343,7 +1390,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -1351,7 +1398,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -1359,7 +1406,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -1367,7 +1414,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -1375,7 +1422,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -1383,7 +1430,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -1391,7 +1438,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -1399,7 +1446,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -1407,7 +1454,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -1415,7 +1462,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -1423,7 +1470,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -1431,7 +1478,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -1439,7 +1486,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -1447,7 +1494,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -1455,7 +1502,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -1463,7 +1510,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -1471,7 +1518,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -1479,7 +1526,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -1487,7 +1534,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -1495,7 +1542,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -1503,7 +1550,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -1511,7 +1558,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
@@ -1519,7 +1566,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
@@ -1527,7 +1574,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
@@ -1535,7 +1582,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -1543,7 +1590,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -1551,7 +1598,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -1559,7 +1606,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -1567,7 +1614,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -1575,75 +1622,75 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
     </row>
-    <row r="97" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
     </row>
-    <row r="98" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
     </row>
